--- a/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_NIND.xlsx
+++ b/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_NIND.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>p_fdr</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -504,6 +509,9 @@
       <c r="H2" t="n">
         <v>0.8872867242426867</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.03253973765829277</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -534,6 +542,9 @@
       <c r="H3" t="n">
         <v>0.9492291107019495</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.04822154653981747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -564,6 +575,9 @@
       <c r="H4" t="n">
         <v>0.5435383003886098</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.03790735129810763</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +608,9 @@
       <c r="H5" t="n">
         <v>0.3266937959955494</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.1690740992363611</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -624,6 +641,9 @@
       <c r="H6" t="n">
         <v>0.9492291107019495</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.05478497421276085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="H7" t="n">
         <v>0.9492291107019495</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.05342993104353511</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -684,6 +707,9 @@
       <c r="H8" t="n">
         <v>0.5412308632039415</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.07114228050042715</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -713,6 +739,9 @@
       </c>
       <c r="H9" t="n">
         <v>0.8872867242426867</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.07347102701763397</v>
       </c>
     </row>
   </sheetData>
